--- a/outputs_by_cluster/cluster_OTHER/publications_with_topics.xlsx
+++ b/outputs_by_cluster/cluster_OTHER/publications_with_topics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>topic_prob</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>llm_label</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>llm_labels</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +536,8 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +580,8 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,6 +620,8 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,6 +664,8 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,6 +704,8 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -728,6 +748,8 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -770,6 +792,8 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -812,6 +836,8 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -854,6 +880,8 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -892,6 +920,8 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -930,6 +960,8 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -972,6 +1004,8 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1014,6 +1048,8 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1056,6 +1092,8 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1098,6 +1136,8 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1140,6 +1180,8 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1182,6 +1224,8 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1224,6 +1268,8 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1266,6 +1312,8 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1308,6 +1356,8 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1346,6 +1396,8 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1388,6 +1440,8 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1430,6 +1484,8 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1468,6 +1524,8 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1510,6 +1568,8 @@
       <c r="J26" t="n">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1548,6 +1608,8 @@
       <c r="J27" t="n">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1586,6 +1648,8 @@
       <c r="J28" t="n">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1624,6 +1688,8 @@
       <c r="J29" t="n">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1662,6 +1728,8 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1704,6 +1772,8 @@
       <c r="J31" t="n">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1746,6 +1816,8 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1788,6 +1860,8 @@
       <c r="J33" t="n">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1826,6 +1900,8 @@
       <c r="J34" t="n">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1868,6 +1944,8 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1910,6 +1988,8 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1948,6 +2028,8 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1990,6 +2072,8 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2032,6 +2116,8 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2070,6 +2156,8 @@
       <c r="J40" t="n">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2112,6 +2200,8 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2158,6 +2248,8 @@
       <c r="J42" t="n">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2200,6 +2292,8 @@
       <c r="J43" t="n">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2242,6 +2336,8 @@
       <c r="J44" t="n">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2280,6 +2376,8 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2322,6 +2420,8 @@
       <c r="J46" t="n">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2364,6 +2464,8 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2406,6 +2508,8 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2448,6 +2552,8 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2490,6 +2596,8 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2528,6 +2636,8 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2570,6 +2680,8 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2608,6 +2720,8 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2650,6 +2764,8 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2688,6 +2804,8 @@
       <c r="J55" t="n">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2730,6 +2848,8 @@
       <c r="J56" t="n">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2772,6 +2892,8 @@
       <c r="J57" t="n">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2818,6 +2940,8 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2860,6 +2984,8 @@
       <c r="J59" t="n">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2898,6 +3024,8 @@
       <c r="J60" t="n">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2944,6 +3072,8 @@
       <c r="J61" t="n">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2990,6 +3120,8 @@
       <c r="J62" t="n">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3032,6 +3164,8 @@
       <c r="J63" t="n">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3074,6 +3208,8 @@
       <c r="J64" t="n">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3116,6 +3252,8 @@
       <c r="J65" t="n">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3154,6 +3292,8 @@
       <c r="J66" t="n">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3200,6 +3340,8 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3242,6 +3384,8 @@
       <c r="J68" t="n">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3284,6 +3428,8 @@
       <c r="J69" t="n">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3322,6 +3468,8 @@
       <c r="J70" t="n">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3364,6 +3512,8 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3410,6 +3560,8 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3452,6 +3604,8 @@
       <c r="J73" t="n">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3494,6 +3648,8 @@
       <c r="J74" t="n">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3540,6 +3696,8 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3582,6 +3740,8 @@
       <c r="J76" t="n">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
